--- a/Assets/三轮例会总结.xlsx
+++ b/Assets/三轮例会总结.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\unity\SanLun\Assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE125F8-57EC-4FA7-AD71-3499237C2E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,17 +57,35 @@
     <t>潘城乐</t>
   </si>
   <si>
-    <t>Content</t>
+    <t>完成地图相关</t>
+  </si>
+  <si>
+    <t>功能汇总、设定流程</t>
+  </si>
+  <si>
+    <t>没法预估工作量和难度</t>
   </si>
   <si>
     <t>时间
 第2次例会</t>
   </si>
   <si>
-    <t>完善武器系统，加上人物素材，编写BUFF抽卡</t>
-  </si>
-  <si>
-    <t>人物旋转移动射击完成，武器系统即将完成</t>
+    <t>完善武器系统，加上人物素材，编写小怪UI，编写经验值系统</t>
+  </si>
+  <si>
+    <t>。完成设定,人物旋转移动射击完成，武器系统即将完成</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>组建地图，写屏障</t>
+  </si>
+  <si>
+    <t>画了点画找了点素材</t>
+  </si>
+  <si>
+    <t>画不好</t>
   </si>
   <si>
     <t>时间
@@ -82,37 +94,19 @@
   <si>
     <t>时间
 第4次例会</t>
-  </si>
-  <si>
-    <t>功能汇总、设定流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>没法预估工作量和难度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成地图相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>画了点画找了点素材</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>画不好</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>组建地图，写屏障</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,22 +138,159 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,12 +299,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -241,19 +558,268 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,26 +828,70 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -539,232 +1149,233 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.58203125" defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="50.5833333333333" defaultRowHeight="17.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
-    <col min="2" max="4" width="50.58203125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="50.5833333333333" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="50.5833333333333" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="100" customHeight="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" ht="100" customHeight="1" spans="1:4">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" ht="100" customHeight="1" spans="1:4">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="100" customHeight="1" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="100" customHeight="1" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="100" customHeight="1" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="100" customHeight="1" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="100" customHeight="1" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="9" ht="100" customHeight="1" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="100" customHeight="1" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="11" ht="100" customHeight="1" spans="1:4">
+      <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="12" ht="100" customHeight="1" spans="1:4">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>19</v>
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" ht="100" customHeight="1"/>
+    <row r="14" ht="100" customHeight="1"/>
+    <row r="15" ht="100" customHeight="1"/>
+    <row r="16" ht="100" customHeight="1"/>
+    <row r="17" ht="100" customHeight="1"/>
+    <row r="18" ht="100" customHeight="1"/>
+    <row r="19" ht="100" customHeight="1"/>
+    <row r="20" ht="100" customHeight="1"/>
+    <row r="21" ht="100" customHeight="1"/>
+    <row r="22" ht="100" customHeight="1"/>
+    <row r="23" ht="100" customHeight="1"/>
+    <row r="24" ht="100" customHeight="1"/>
+    <row r="25" ht="100" customHeight="1"/>
+    <row r="26" ht="100" customHeight="1"/>
+    <row r="27" ht="100" customHeight="1"/>
+    <row r="28" ht="100" customHeight="1"/>
+    <row r="29" ht="100" customHeight="1"/>
+    <row r="30" ht="100" customHeight="1"/>
+    <row r="31" ht="100" customHeight="1"/>
+    <row r="32" ht="100" customHeight="1"/>
+    <row r="33" ht="100" customHeight="1"/>
+    <row r="34" ht="100" customHeight="1"/>
+    <row r="35" ht="100" customHeight="1"/>
+    <row r="36" ht="100" customHeight="1"/>
+    <row r="37" ht="100" customHeight="1"/>
+    <row r="38" ht="100" customHeight="1"/>
+    <row r="39" ht="100" customHeight="1"/>
+    <row r="40" ht="100" customHeight="1"/>
+    <row r="41" ht="100" customHeight="1"/>
+    <row r="42" ht="100" customHeight="1"/>
+    <row r="43" ht="100" customHeight="1"/>
+    <row r="44" ht="100" customHeight="1"/>
+    <row r="45" ht="100" customHeight="1"/>
+    <row r="46" ht="100" customHeight="1"/>
+    <row r="47" ht="100" customHeight="1"/>
+    <row r="48" ht="100" customHeight="1"/>
+    <row r="49" ht="100" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/三轮例会总结.xlsx
+++ b/Assets/三轮例会总结.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>时间
 第1次例会</t>
@@ -70,7 +70,7 @@
 第2次例会</t>
   </si>
   <si>
-    <t>完善武器系统，加上人物素材，编写小怪UI，编写经验值系统</t>
+    <t>完善武器系统，加上人物素材，编写小怪AI，编写经验值系统</t>
   </si>
   <si>
     <t>。完成设定,人物旋转移动射击完成，武器系统即将完成</t>
@@ -90,6 +90,16 @@
   <si>
     <t>时间
 第3次例会</t>
+  </si>
+  <si>
+    <t>完成经验系统，完成BUFF抽卡脚本及其UI界面,编写敌怪生成逻辑</t>
+  </si>
+  <si>
+    <t>武器系统完成，BUFF系统完成至事件编写，尚未编辑BUFF修改脚本，人物动画编辑完成，敌怪AI完成，经验值系统未编写</t>
+  </si>
+  <si>
+    <t>Unity事件工具
+三个小怪行为模式相同，仅数据不同，如何修改脚本节约内存？</t>
   </si>
   <si>
     <t>时间
@@ -106,7 +116,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,14 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -674,137 +676,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -831,9 +833,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1157,8 +1156,8 @@
   <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5833333333333" defaultRowHeight="17.5" outlineLevelCol="3"/>
@@ -1200,13 +1199,13 @@
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1242,13 +1241,13 @@
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1271,13 +1270,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="100" customHeight="1" spans="1:4">
@@ -1296,7 +1295,7 @@
     </row>
     <row r="10" ht="100" customHeight="1" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>1</v>

--- a/Assets/三轮例会总结.xlsx
+++ b/Assets/三轮例会总结.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\unity\SanLun\Assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630A9445-9688-48B7-A59C-83C178A93A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>时间
 第1次例会</t>
@@ -108,19 +102,37 @@
 三个小怪行为模式相同，仅数据不同，如何修改脚本节约内存？</t>
   </si>
   <si>
+    <t>写了护盾、血量通用脚本</t>
+  </si>
+  <si>
     <t>时间
 第4次例会</t>
   </si>
   <si>
-    <t>写了护盾、血量通用脚本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>实现剩余BUFF，添加音效，粒子效果，尝试解决画面抖动的问题，增加怪物贴图</t>
+  </si>
+  <si>
+    <t>经验系统完成，BUFF抽卡界面完成，部分BUFF功能尚未实现，敌怪生成逻辑完成</t>
+  </si>
+  <si>
+    <t>相机跟随时带来的画面抽搐问题怎么解决，仍未解决脚本冗余的问题</t>
+  </si>
+  <si>
+    <t>时间
+第5次例会</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,22 +164,159 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +325,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -249,9 +584,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -282,21 +859,65 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -554,26 +1175,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.58203125" defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="50.5833333333333" defaultRowHeight="17.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
-    <col min="2" max="4" width="50.58203125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="50.58203125" style="5"/>
+    <col min="2" max="4" width="50.5833333333333" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="50.5833333333333" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -587,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="100" customHeight="1" spans="1:4">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -601,7 +1222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="100" customHeight="1" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -615,7 +1236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="100" customHeight="1" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -629,7 +1250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" s="2" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -643,7 +1264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="100" customHeight="1" spans="1:4">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -657,7 +1278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="100" customHeight="1" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -671,7 +1292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="100" customHeight="1" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -685,7 +1306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="100" customHeight="1" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -693,15 +1314,15 @@
         <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="100" customHeight="1" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>1</v>
@@ -713,21 +1334,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="100" customHeight="1" spans="1:4">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="100" customHeight="1" spans="1:4">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -741,46 +1362,85 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" ht="100" customHeight="1" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="100" customHeight="1" spans="1:4">
+      <c r="A14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="100" customHeight="1" spans="1:4">
+      <c r="A15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="100" customHeight="1"/>
+    <row r="17" ht="100" customHeight="1"/>
+    <row r="18" ht="100" customHeight="1"/>
+    <row r="19" ht="100" customHeight="1"/>
+    <row r="20" ht="100" customHeight="1"/>
+    <row r="21" ht="100" customHeight="1"/>
+    <row r="22" ht="100" customHeight="1"/>
+    <row r="23" ht="100" customHeight="1"/>
+    <row r="24" ht="100" customHeight="1"/>
+    <row r="25" ht="100" customHeight="1"/>
+    <row r="26" ht="100" customHeight="1"/>
+    <row r="27" ht="100" customHeight="1"/>
+    <row r="28" ht="100" customHeight="1"/>
+    <row r="29" ht="100" customHeight="1"/>
+    <row r="30" ht="100" customHeight="1"/>
+    <row r="31" ht="100" customHeight="1"/>
+    <row r="32" ht="100" customHeight="1"/>
+    <row r="33" ht="100" customHeight="1"/>
+    <row r="34" ht="100" customHeight="1"/>
+    <row r="35" ht="100" customHeight="1"/>
+    <row r="36" ht="100" customHeight="1"/>
+    <row r="37" ht="100" customHeight="1"/>
+    <row r="38" ht="100" customHeight="1"/>
+    <row r="39" ht="100" customHeight="1"/>
+    <row r="40" ht="100" customHeight="1"/>
+    <row r="41" ht="100" customHeight="1"/>
+    <row r="42" ht="100" customHeight="1"/>
+    <row r="43" ht="100" customHeight="1"/>
+    <row r="44" ht="100" customHeight="1"/>
+    <row r="45" ht="100" customHeight="1"/>
+    <row r="46" ht="100" customHeight="1"/>
+    <row r="47" ht="100" customHeight="1"/>
+    <row r="48" ht="100" customHeight="1"/>
+    <row r="49" ht="100" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/三轮例会总结.xlsx
+++ b/Assets/三轮例会总结.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\unity\SanLun\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971B1DC1-D75E-4AB3-9DB3-FB828080C9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11190"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>时间
 第1次例会</t>
@@ -120,19 +124,25 @@
   <si>
     <t>时间
 第5次例会</t>
+  </si>
+  <si>
+    <t>地图自动生成一半（方向和解决办法）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么存小地图的坐标并记录他们的状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>写完地图等安排（做界面和优化？）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,151 +182,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,198 +206,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -584,253 +279,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -862,62 +315,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1175,26 +587,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.5833333333333" defaultRowHeight="17.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="50.58203125" defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
-    <col min="2" max="4" width="50.5833333333333" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="50.5833333333333" style="5"/>
+    <col min="2" max="4" width="50.58203125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="50.58203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="100" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="100" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1222,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="100" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="100" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1250,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="100" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="100" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="100" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1292,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="100" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1306,7 +718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="100" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="100" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1334,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="100" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -1348,21 +760,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="100" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="100" customHeight="1" spans="1:4">
+      <c r="B12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -1376,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="100" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="100" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
@@ -1404,43 +816,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="100" customHeight="1"/>
-    <row r="17" ht="100" customHeight="1"/>
-    <row r="18" ht="100" customHeight="1"/>
-    <row r="19" ht="100" customHeight="1"/>
-    <row r="20" ht="100" customHeight="1"/>
-    <row r="21" ht="100" customHeight="1"/>
-    <row r="22" ht="100" customHeight="1"/>
-    <row r="23" ht="100" customHeight="1"/>
-    <row r="24" ht="100" customHeight="1"/>
-    <row r="25" ht="100" customHeight="1"/>
-    <row r="26" ht="100" customHeight="1"/>
-    <row r="27" ht="100" customHeight="1"/>
-    <row r="28" ht="100" customHeight="1"/>
-    <row r="29" ht="100" customHeight="1"/>
-    <row r="30" ht="100" customHeight="1"/>
-    <row r="31" ht="100" customHeight="1"/>
-    <row r="32" ht="100" customHeight="1"/>
-    <row r="33" ht="100" customHeight="1"/>
-    <row r="34" ht="100" customHeight="1"/>
-    <row r="35" ht="100" customHeight="1"/>
-    <row r="36" ht="100" customHeight="1"/>
-    <row r="37" ht="100" customHeight="1"/>
-    <row r="38" ht="100" customHeight="1"/>
-    <row r="39" ht="100" customHeight="1"/>
-    <row r="40" ht="100" customHeight="1"/>
-    <row r="41" ht="100" customHeight="1"/>
-    <row r="42" ht="100" customHeight="1"/>
-    <row r="43" ht="100" customHeight="1"/>
-    <row r="44" ht="100" customHeight="1"/>
-    <row r="45" ht="100" customHeight="1"/>
-    <row r="46" ht="100" customHeight="1"/>
-    <row r="47" ht="100" customHeight="1"/>
-    <row r="48" ht="100" customHeight="1"/>
-    <row r="49" ht="100" customHeight="1"/>
+    <row r="16" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/三轮例会总结.xlsx
+++ b/Assets/三轮例会总结.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\unity\SanLun\Assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971B1DC1-D75E-4AB3-9DB3-FB828080C9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>时间
 第1次例会</t>
@@ -122,27 +118,39 @@
     <t>相机跟随时带来的画面抽搐问题怎么解决，仍未解决脚本冗余的问题</t>
   </si>
   <si>
+    <t>写完地图等安排（做界面和优化？）</t>
+  </si>
+  <si>
+    <t>地图自动生成一半（方向和解决办法）</t>
+  </si>
+  <si>
+    <t>怎么存小地图的坐标并记录他们的状态</t>
+  </si>
+  <si>
     <t>时间
 第5次例会</t>
   </si>
   <si>
-    <t>地图自动生成一半（方向和解决办法）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么存小地图的坐标并记录他们的状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>写完地图等安排（做界面和优化？）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>继续增强打击感，尝试解决画面抖动</t>
+  </si>
+  <si>
+    <t>优化敌怪脚本，目前所有BUFF功能已实现，怪物贴图增加，增加扣血量浮动显示</t>
+  </si>
+  <si>
+    <t>画面抖动原因（不同脚本的生命周期函数的执行顺序？）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,22 +190,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,12 +343,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79989013336588644"/>
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -279,11 +602,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -315,21 +880,62 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -587,26 +1193,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.58203125" defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="50.5833333333333" defaultRowHeight="17.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
-    <col min="2" max="4" width="50.58203125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="50.58203125" style="5"/>
+    <col min="2" max="4" width="50.5833333333333" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="50.5833333333333" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -620,7 +1226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="100" customHeight="1" spans="1:4">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -634,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="100" customHeight="1" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -648,7 +1254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="100" customHeight="1" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -662,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" s="2" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -676,7 +1282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="100" customHeight="1" spans="1:4">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -690,7 +1296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="100" customHeight="1" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -704,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="100" customHeight="1" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -718,21 +1324,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="100" customHeight="1" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="100" customHeight="1" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -746,7 +1352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="100" customHeight="1" spans="1:4">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -760,23 +1366,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="100" customHeight="1" spans="1:4">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="100" customHeight="1" spans="1:4">
+      <c r="A13" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>1</v>
@@ -788,71 +1394,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="100" customHeight="1" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="100" customHeight="1" spans="1:4">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" ht="100" customHeight="1"/>
+    <row r="17" ht="100" customHeight="1"/>
+    <row r="18" ht="100" customHeight="1"/>
+    <row r="19" ht="100" customHeight="1"/>
+    <row r="20" ht="100" customHeight="1"/>
+    <row r="21" ht="100" customHeight="1"/>
+    <row r="22" ht="100" customHeight="1"/>
+    <row r="23" ht="100" customHeight="1"/>
+    <row r="24" ht="100" customHeight="1"/>
+    <row r="25" ht="100" customHeight="1"/>
+    <row r="26" ht="100" customHeight="1"/>
+    <row r="27" ht="100" customHeight="1"/>
+    <row r="28" ht="100" customHeight="1"/>
+    <row r="29" ht="100" customHeight="1"/>
+    <row r="30" ht="100" customHeight="1"/>
+    <row r="31" ht="100" customHeight="1"/>
+    <row r="32" ht="100" customHeight="1"/>
+    <row r="33" ht="100" customHeight="1"/>
+    <row r="34" ht="100" customHeight="1"/>
+    <row r="35" ht="100" customHeight="1"/>
+    <row r="36" ht="100" customHeight="1"/>
+    <row r="37" ht="100" customHeight="1"/>
+    <row r="38" ht="100" customHeight="1"/>
+    <row r="39" ht="100" customHeight="1"/>
+    <row r="40" ht="100" customHeight="1"/>
+    <row r="41" ht="100" customHeight="1"/>
+    <row r="42" ht="100" customHeight="1"/>
+    <row r="43" ht="100" customHeight="1"/>
+    <row r="44" ht="100" customHeight="1"/>
+    <row r="45" ht="100" customHeight="1"/>
+    <row r="46" ht="100" customHeight="1"/>
+    <row r="47" ht="100" customHeight="1"/>
+    <row r="48" ht="100" customHeight="1"/>
+    <row r="49" ht="100" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/三轮例会总结.xlsx
+++ b/Assets/三轮例会总结.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\unity\SanLun\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E2915C-7329-4FA1-B517-93596AE5A78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11190"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>时间
 第1次例会</t>
@@ -138,19 +142,25 @@
   </si>
   <si>
     <t>画面抖动原因（不同脚本的生命周期函数的执行顺序？）</t>
+  </si>
+  <si>
+    <t>地图生成都好了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态构造函数和关键字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互没做好|优化打击感？怪物生成？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,151 +200,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,198 +224,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -602,253 +297,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -880,62 +333,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1193,26 +605,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.5833333333333" defaultRowHeight="17.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="50.58203125" defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
-    <col min="2" max="4" width="50.5833333333333" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="50.5833333333333" style="5"/>
+    <col min="2" max="4" width="50.58203125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="50.58203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="100" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="100" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1240,7 +652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="100" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -1254,7 +666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="100" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1268,7 +680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="100" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="100" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="100" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1310,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="100" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1324,7 +736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="100" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1338,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="100" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1352,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="100" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="100" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -1380,7 +792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="100" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1394,7 +806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="100" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -1408,51 +820,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" ht="100" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" ht="100" customHeight="1"/>
-    <row r="17" ht="100" customHeight="1"/>
-    <row r="18" ht="100" customHeight="1"/>
-    <row r="19" ht="100" customHeight="1"/>
-    <row r="20" ht="100" customHeight="1"/>
-    <row r="21" ht="100" customHeight="1"/>
-    <row r="22" ht="100" customHeight="1"/>
-    <row r="23" ht="100" customHeight="1"/>
-    <row r="24" ht="100" customHeight="1"/>
-    <row r="25" ht="100" customHeight="1"/>
-    <row r="26" ht="100" customHeight="1"/>
-    <row r="27" ht="100" customHeight="1"/>
-    <row r="28" ht="100" customHeight="1"/>
-    <row r="29" ht="100" customHeight="1"/>
-    <row r="30" ht="100" customHeight="1"/>
-    <row r="31" ht="100" customHeight="1"/>
-    <row r="32" ht="100" customHeight="1"/>
-    <row r="33" ht="100" customHeight="1"/>
-    <row r="34" ht="100" customHeight="1"/>
-    <row r="35" ht="100" customHeight="1"/>
-    <row r="36" ht="100" customHeight="1"/>
-    <row r="37" ht="100" customHeight="1"/>
-    <row r="38" ht="100" customHeight="1"/>
-    <row r="39" ht="100" customHeight="1"/>
-    <row r="40" ht="100" customHeight="1"/>
-    <row r="41" ht="100" customHeight="1"/>
-    <row r="42" ht="100" customHeight="1"/>
-    <row r="43" ht="100" customHeight="1"/>
-    <row r="44" ht="100" customHeight="1"/>
-    <row r="45" ht="100" customHeight="1"/>
-    <row r="46" ht="100" customHeight="1"/>
-    <row r="47" ht="100" customHeight="1"/>
-    <row r="48" ht="100" customHeight="1"/>
-    <row r="49" ht="100" customHeight="1"/>
+      <c r="B15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/三轮例会总结.xlsx
+++ b/Assets/三轮例会总结.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\unity\SanLun\Assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E2915C-7329-4FA1-B517-93596AE5A78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>时间
 第1次例会</t>
@@ -144,23 +140,39 @@
     <t>画面抖动原因（不同脚本的生命周期函数的执行顺序？）</t>
   </si>
   <si>
+    <t>交互没做好|优化打击感？怪物生成？</t>
+  </si>
+  <si>
     <t>地图生成都好了</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>静态构造函数和关键字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互没做好|优化打击感？怪物生成？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间
+第6次例会</t>
+  </si>
+  <si>
+    <t>收尾</t>
+  </si>
+  <si>
+    <t>画面抖动问题解决，添加血液效果，添加经验条和血条，修复敌人生成位置错误的Bug</t>
+  </si>
+  <si>
+    <t>射线检测为什么检测不到物体？如何判定游戏物体是卡在墙里还是与墙接触？HasTile的判定范围是多边形还是矩形</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,22 +212,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,12 +365,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641044"/>
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -297,11 +624,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -333,21 +902,62 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -605,26 +1215,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.58203125" defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="50.5833333333333" defaultRowHeight="17.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
-    <col min="2" max="4" width="50.58203125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="50.58203125" style="5"/>
+    <col min="2" max="4" width="50.5833333333333" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="50.5833333333333" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -638,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="100" customHeight="1" spans="1:4">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -652,7 +1262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="100" customHeight="1" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -666,7 +1276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="100" customHeight="1" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -680,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" s="2" customFormat="1" ht="100" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -694,7 +1304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="100" customHeight="1" spans="1:4">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -708,7 +1318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="100" customHeight="1" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -722,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="100" customHeight="1" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -736,7 +1346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="100" customHeight="1" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -750,7 +1360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="100" customHeight="1" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -764,7 +1374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="100" customHeight="1" spans="1:4">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -778,21 +1388,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="100" customHeight="1" spans="1:4">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="100" customHeight="1" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -806,7 +1416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="100" customHeight="1" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -820,57 +1430,96 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="100" customHeight="1" spans="1:4">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="11" t="s">
+    </row>
+    <row r="16" ht="100" customHeight="1" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="100" customHeight="1" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" ht="100" customHeight="1" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D18" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" ht="100" customHeight="1"/>
+    <row r="20" ht="100" customHeight="1"/>
+    <row r="21" ht="100" customHeight="1"/>
+    <row r="22" ht="100" customHeight="1"/>
+    <row r="23" ht="100" customHeight="1"/>
+    <row r="24" ht="100" customHeight="1"/>
+    <row r="25" ht="100" customHeight="1"/>
+    <row r="26" ht="100" customHeight="1"/>
+    <row r="27" ht="100" customHeight="1"/>
+    <row r="28" ht="100" customHeight="1"/>
+    <row r="29" ht="100" customHeight="1"/>
+    <row r="30" ht="100" customHeight="1"/>
+    <row r="31" ht="100" customHeight="1"/>
+    <row r="32" ht="100" customHeight="1"/>
+    <row r="33" ht="100" customHeight="1"/>
+    <row r="34" ht="100" customHeight="1"/>
+    <row r="35" ht="100" customHeight="1"/>
+    <row r="36" ht="100" customHeight="1"/>
+    <row r="37" ht="100" customHeight="1"/>
+    <row r="38" ht="100" customHeight="1"/>
+    <row r="39" ht="100" customHeight="1"/>
+    <row r="40" ht="100" customHeight="1"/>
+    <row r="41" ht="100" customHeight="1"/>
+    <row r="42" ht="100" customHeight="1"/>
+    <row r="43" ht="100" customHeight="1"/>
+    <row r="44" ht="100" customHeight="1"/>
+    <row r="45" ht="100" customHeight="1"/>
+    <row r="46" ht="100" customHeight="1"/>
+    <row r="47" ht="100" customHeight="1"/>
+    <row r="48" ht="100" customHeight="1"/>
+    <row r="49" ht="100" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/三轮例会总结.xlsx
+++ b/Assets/三轮例会总结.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\unity\SanLun\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E564675E-80C7-4A20-A9B4-773273CFF227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11190"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>时间
 第1次例会</t>
@@ -160,19 +164,21 @@
   </si>
   <si>
     <t>射线检测为什么检测不到物体？如何判定游戏物体是卡在墙里还是与墙接触？HasTile的判定范围是多边形还是矩形</t>
+  </si>
+  <si>
+    <t>出口和场景切换</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导和base和排行榜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,151 +218,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,198 +242,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -624,253 +315,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -902,62 +351,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1215,26 +623,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.5833333333333" defaultRowHeight="17.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="50.58203125" defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
-    <col min="2" max="4" width="50.5833333333333" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="50.5833333333333" style="5"/>
+    <col min="2" max="4" width="50.58203125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="50.58203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="100" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="100" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="100" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -1276,7 +684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="100" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1290,7 +698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="100" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="100" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1318,7 +726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="100" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1332,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="100" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="100" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="100" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1374,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="100" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -1388,7 +796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="100" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -1402,7 +810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="100" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1416,7 +824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="100" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" ht="100" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
@@ -1444,7 +852,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" ht="100" customHeight="1" spans="1:4">
+    <row r="16" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -1458,7 +866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" ht="100" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -1472,54 +880,52 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" ht="100" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" ht="100" customHeight="1"/>
-    <row r="20" ht="100" customHeight="1"/>
-    <row r="21" ht="100" customHeight="1"/>
-    <row r="22" ht="100" customHeight="1"/>
-    <row r="23" ht="100" customHeight="1"/>
-    <row r="24" ht="100" customHeight="1"/>
-    <row r="25" ht="100" customHeight="1"/>
-    <row r="26" ht="100" customHeight="1"/>
-    <row r="27" ht="100" customHeight="1"/>
-    <row r="28" ht="100" customHeight="1"/>
-    <row r="29" ht="100" customHeight="1"/>
-    <row r="30" ht="100" customHeight="1"/>
-    <row r="31" ht="100" customHeight="1"/>
-    <row r="32" ht="100" customHeight="1"/>
-    <row r="33" ht="100" customHeight="1"/>
-    <row r="34" ht="100" customHeight="1"/>
-    <row r="35" ht="100" customHeight="1"/>
-    <row r="36" ht="100" customHeight="1"/>
-    <row r="37" ht="100" customHeight="1"/>
-    <row r="38" ht="100" customHeight="1"/>
-    <row r="39" ht="100" customHeight="1"/>
-    <row r="40" ht="100" customHeight="1"/>
-    <row r="41" ht="100" customHeight="1"/>
-    <row r="42" ht="100" customHeight="1"/>
-    <row r="43" ht="100" customHeight="1"/>
-    <row r="44" ht="100" customHeight="1"/>
-    <row r="45" ht="100" customHeight="1"/>
-    <row r="46" ht="100" customHeight="1"/>
-    <row r="47" ht="100" customHeight="1"/>
-    <row r="48" ht="100" customHeight="1"/>
-    <row r="49" ht="100" customHeight="1"/>
+      <c r="B18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="100" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>